--- a/file/EcologicalFootprint.xlsx
+++ b/file/EcologicalFootprint.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seki/git/sekika.github.io/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206F6B7F-BECA-3342-AB7F-D45F5B787B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA2E62-9214-CE48-9D34-85A12681356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="2960" windowWidth="25600" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エコロジカル・フットプリント" sheetId="3" r:id="rId1"/>
-    <sheet name="2018" sheetId="5" r:id="rId2"/>
-    <sheet name="2017" sheetId="4" r:id="rId3"/>
-    <sheet name="2016" sheetId="2" r:id="rId4"/>
+    <sheet name="2024" sheetId="6" r:id="rId2"/>
+    <sheet name="2018" sheetId="5" r:id="rId3"/>
+    <sheet name="2017" sheetId="4" r:id="rId4"/>
+    <sheet name="2016" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017'!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2017'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2018'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="528">
   <si>
     <t>compare_countries_EFCpc</t>
   </si>
@@ -1696,13 +1697,18 @@
     <t>https://data.footprintnetwork.org/#/compareCountries?cn=all&amp;type=EFCpc&amp;yr=2018</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>Tﾃｼrkiye</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -1763,7 +1769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1772,10 +1778,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2062,14 +2065,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -2090,7 +2095,7 @@
         <v>409</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2140,26 +2145,26 @@
       <c r="B7" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="5">
-        <v>12.822947743662301</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.70629267122108896</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.15998458714681599</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.190356804103611</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.34224876713946001</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4.9123020721263899E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>14.2709535939946</v>
+      <c r="C7" s="4">
+        <v>13.9211799209055</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.71906648247696603</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.17142245881388399</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.193279826222644</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.44475322383711202</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.3852958921956999E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15.483554871178001</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2177,26 +2182,26 @@
       <c r="B8" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="5">
-        <v>5.7733653376440301</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.93799164946407498</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.12788975300921501</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.92173806604994901</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.28909238874654603</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7.2305929949469799E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>8.1223831248632798</v>
+      <c r="C8" s="4">
+        <v>4.7662737400241504</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.3265948251225499</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.120605014271835</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.91952377371810801</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.28166683314221402</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.2479812643947599E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.4771439989228003</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2214,26 +2219,26 @@
       <c r="B9" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="5">
-        <v>3.6058675861820699</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.63963851010532102</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.18908012271916</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.74565595858794698</v>
-      </c>
-      <c r="G9" s="5">
-        <v>9.1204581388717398E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3.9187934991866999E-2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5.3106346939750804</v>
+      <c r="C9" s="4">
+        <v>3.88761938218446</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2238838029640999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25568414964476199</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.708427031600118</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6.08676957625248E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.3393583972099705E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.2098756461280598</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2251,26 +2256,26 @@
       <c r="B10" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="5">
-        <v>3.5002832939180202</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.43960414478784698</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.25903895801730997</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.22604566937494899</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.12222993937889701</v>
-      </c>
-      <c r="H10" s="5">
-        <v>6.0490380522290201E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4.6076923859993197</v>
+      <c r="C10" s="4">
+        <v>2.9720539220781799</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.41522997652358201</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.22926143530174001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.23543863865022199</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.12723795501176</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.6811602395596503E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.0360335299610801</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2288,26 +2293,26 @@
       <c r="B11" t="s">
         <v>413</v>
       </c>
-      <c r="C11" s="5">
-        <v>2.6791956810778599</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.569592307296371</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7.1745852205006996E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.22399187330262699</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.144927292980504</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.107280341174366</v>
-      </c>
-      <c r="I11" s="5">
-        <v>3.79673334803674</v>
+      <c r="C11" s="4">
+        <v>2.7840668214352</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.41117250997927501</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.8837502528263705E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.21145292920592201</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.124788783712474</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.4652371913532703E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.6749709187746702</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2325,26 +2330,26 @@
       <c r="B12" t="s">
         <v>425</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.70335580784831198</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.59346296379042096</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.0953293152026199E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.46556871526504101</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.65606224553835701</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.128556159500955</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2.58795918509511</v>
+      <c r="C12" s="4">
+        <v>0.77509923037148598</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.41811305880924499</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5.7635358469387103E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.43422734937172203</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.61184027293075005</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.2053185773036394E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.3889684557256299</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2362,26 +2367,26 @@
       <c r="B13" t="s">
         <v>423</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.70289367358069299</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.498682410337211</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.229114552070218</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.18264473535786399</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4.27266739927918E-2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>6.1119005526988297E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1.7171810508657701</v>
+      <c r="C13" s="4">
+        <v>0.89097823857647496</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.474105122852434</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.226710769036991</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.16753660228145101</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.2796186357334398E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.3559807401812203E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.8556867265065</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2399,26 +2404,26 @@
       <c r="B14" t="s">
         <v>414</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.67650672823207003</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.33969620187396898</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.6353390742449101E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.118340277938022</v>
+      <c r="C14" s="4">
+        <v>0.71460850291199096</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.22142689937860799</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.4929202102993901E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.11264204189733</v>
       </c>
       <c r="G14" s="4">
-        <v>7.4187472794278904E-3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5.1241155321325303E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1.20955650138726</v>
+        <v>9.2421169399207904E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3.9777277364344603E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.11262604059519</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2436,26 +2441,26 @@
       <c r="B15" t="s">
         <v>415</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.38362376869155801</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.255168458908485</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.1647569048197699E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>7.8533247770232198E-2</v>
+      <c r="C15" s="4">
+        <v>0.36520113086832501</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.24765218494694899</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.5937974589962298E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.5773207134656703E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>4.5018948666506299E-3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>3.75595296148876E-2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.77103446890001104</v>
+        <v>5.5940765508761996E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.3353500155988001E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.73351207424675702</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2473,26 +2478,26 @@
       <c r="B16" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="5">
-        <v>1.6895571419802999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.51345989833832895</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8.9533720866953506E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.28450915136167299</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.13464139711134601</v>
-      </c>
-      <c r="H16" s="5">
-        <v>6.3249946763783302E-2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>2.7749509104286201</v>
+      <c r="C16" s="4">
+        <v>1.6468118369264799</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.44704944373732802</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.3441922576775004E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.271111984863949</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.12582474851367401</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.3916980192258693E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.6381581545899602</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2530,6 +2535,7923 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C8472-39B6-934F-A82A-4A9028EE762F}">
+  <dimension ref="A1:N194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.6938795145885399E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.7754426988227701</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.69277437102836303</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5.0110326802136696E-4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.20136412193294201</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.24331430282932601</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.9403353930273002</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.0470696386778601E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.8276069009996804E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.424198163403395</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0823928036050501E-4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.1726947955482598E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.13840131576198</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.71348143179799295</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.6734718269817403E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.68758877470853097</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.77696033793355501</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.93522137009833E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.18874036387585599</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.28020741426700102</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.0595838227557399</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.9275452318833502E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.42625439255325</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.60261398760078</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.7281899169753199E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.14834345509204</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.13301341053375099</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.36678259726841</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.4190263854175599E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.23799190736529199</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.242126393374413</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.6310950655017601E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8.3826659291222197E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.7404900750234197E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.76185107529035401</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.3429994574660702</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9.4363735068994703E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.31798773984908</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0456349549049699</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9.6447882136059704E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.29719395753093503</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.43824969832074101</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3.2898779678107801</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.6709981473185303E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.7566771277396596</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.91574815828518596</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.121822140052586</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.82285172052982603</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.60507966940908697</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.2788887974895298</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.20029773143823501</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.5548652663079099</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.912877438779787</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.3487252964947598E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.940743159499276</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.26138668205423798</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5.9136575310443904</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.1235730540687299E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.6989690107968096</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.52432144477310905</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.125049375439512</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.40706500086054498</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.39356107523279898</v>
+      </c>
+      <c r="K11" s="3">
+        <v>7.1902016376434696</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.6417291366329997E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.3949787601341699</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.53913433742760897</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.13558735268289099</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.240028358780247</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.39350353791733</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.7696496383085796</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.59092367174192E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.3490804541590999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.547175884641802</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.55823135996752304</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.146518915455669</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.32085670579287401</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.9677725567343796</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.08525018518449E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.29465249952568401</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.21949172585365101</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.9862404966050799E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.3280061299823299E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.2842560489605401E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.68098175398665906</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.128769088996428</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.32680772933329699</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.56334825746331296</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2.6161175069325599E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.8847187545306401</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.44120060416246498</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4.3710056095554704</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.5354028135066603E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.66172117029910804</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.23168472204471899</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.3720691217245299E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.184746673124775</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.5047663252454799</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.64464498797087</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.3853439676698899E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.3609201243626701</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.239988305193371</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.7318563269434302E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.221399609256065</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.22932618263999799</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.08121951745574</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9.2053185773036394E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.77509923037148598</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.41811305880924499</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5.7635358469387103E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.43422734937172203</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.61184027293075005</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.3889684557256299</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.12549450686754299</v>
+      </c>
+      <c r="F19" s="3">
+        <v>9.7231342429926398E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29156791435788598</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.94170756712844705</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.5161418226840899</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.2684879303776401E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.9948280327716699</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.24302804152753299</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.8677475290144301</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.24805167747047</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.5543703265270106E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.57070863313315001</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.18375600003234499</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.1788355844431999</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.6739907268508605E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.28822418836681901</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.36541374640080199</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.5838697672033503E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.32839960274674701</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1.0789116922160899E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.10540525937707</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.1627071793864698E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5.7061608552860597E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.19977663952748501</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.7744430150371002E-3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.20512487626687501</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5.7305180764317801E-2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.56366981992044096</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6.8627418123276093E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.16818585389980401</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.47520876439565701</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6.7401426356255206E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.18821930720996499</v>
+      </c>
+      <c r="J23" s="3">
+        <v>9.6698021638966597E-2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.06434079162392</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.0284508622380193E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4.6780010214397496</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.53212726603815</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.10400186303932001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.46723939681578</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.24371382933221999</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8.1053678852876008</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9.4456924887575303E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3.4223922511251802E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.56490025087275297</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.82368982898456E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.20316240479124001</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.41386878046468201</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.32884918181735</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.9269406639988501E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.50194131575771594</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.33566440309281598</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.160845596009593</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.14021189456657701</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8.1737332360657302E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.1961063493027599</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.3217550029357401E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.1995394362924501E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.241910116618961</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6.9868429876924799E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.20237239758983</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.76291057815773999</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.30939287974651</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7.7595180280352796E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.97725685817505</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.65346704165688496</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.126996143560556</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.0289548375256099</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.402746977118146</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4.2670170383165997</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7.5865049588985101E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.71241442441090996</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.353712172504341</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.1970476452617501E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.109881136785711</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.66520408489407601</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.9690473446366401</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.0614865880098501E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.39171238372393502</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.32709448621443798</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.11442119120930699</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.226040894565431</v>
+      </c>
+      <c r="J30" s="3">
+        <v>7.5744464114729598E-2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1.1756282857079401</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7.47348294712296E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.04694308134176</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.41629633457675702</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.155674605336307</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.62148970140806603</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.18354310861905301</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2.4986816607531699</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.69142407201969</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4.55313375757913</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.9665198831967398E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.26620310164581</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.74470622559603095</v>
+      </c>
+      <c r="H34" s="3">
+        <v>8.5814394416063103E-3</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.12290276897688</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.192682055718193</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2.3847407902104898</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.7131729298726497E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.31994189178774601</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.40890443660991699</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.143854454716662</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.20256015020464699</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5.0944124557075803E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.16333678717477</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.30223174723266899</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.99621139972573</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.6091508547575799</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.52992145396043699</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.06458605343587</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.37520166405707001</v>
+      </c>
+      <c r="K36" s="3">
+        <v>6.8773031731693504</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.9851796792293901</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6.5674734522973593E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.1318591440843899</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.60997341927908999</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.25508147896432098</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.18529620431381599</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.13768955216703699</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2.3855745333316198</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3">
+        <v>6.2382436377994503E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.7653933784089799</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.0298724356448301</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5.56985695522507E-2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.3954609047919599</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.17100467369796901</v>
+      </c>
+      <c r="K39" s="3">
+        <v>4.4798123984740004</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.70955277159234</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7.4592470358232396E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.74668216286578204</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.28249430628150002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3.6704771300567103E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.115091334455369</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5.05333104901418E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.3060983557515899</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3.6499369464745003E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.99395273098507597</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.403236509067118</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.14583386973014101</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.45226157250228299</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.200497202637134</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2.2322812543864998</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.5084860903473403E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.55991793914782395</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.174180085792245</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9.6352690885195394E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.46376514219820902</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2.8645703677679098E-2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.3579464226046301</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.252741693131316</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3.0972516923199902</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.92995346316991601</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8.4852462903961201E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4.5722002476761396</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.19876038699109999</v>
+      </c>
+      <c r="K44" s="3">
+        <v>9.1357599461924295</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5.5295688105758398E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.94210369041050901</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.47982951791450401</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.434434142337497</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.69762132121078602</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.19968708367302199</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2.8089714436520801</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.20906254303799801</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2.7193542438884402</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.0440749326752801</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.161532142239278</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.6837585474779899</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.17274145849832401</v>
+      </c>
+      <c r="K46" s="3">
+        <v>5.9905238678173198</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.19292135552944001</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2.4679485369773602</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.0565230416852101</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.23546636525367601</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.54172686420736405</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.27575108829064199</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4.7703372519436904</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3.9980288024216102</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2.0764767881225099</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4.7016182370049703E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2.0610684099669299</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.37974710239513898</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.39736381249498498</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.14716851514895399</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.25309527613466698</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3.28545929851072</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4.0043180869566597E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.60260158996735103</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.42713507130414302</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.22143632198079499</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.62932173407911995</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.14921615302341201</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2.0697540512243902</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.1315196959988E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.21213357471644601</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.31537018501837599</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8.3977467970871397E-2</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.12654342150596401</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7.2366932897385397E-2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.821706779069031</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.200360566151395</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2.449263874873</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.80106970773776298</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5.8678505755526897E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.48263140005990302</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.184630016902323</v>
+      </c>
+      <c r="K53" s="3">
+        <v>4.1766340714799099</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3.2975982987891499E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2.0618415718039902</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1.32406014071325</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.24635670631092499</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.70736126308338299</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.30212293462219397</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4.6747185995216398</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3">
+        <v>8.9349526906787297E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.44984179600379098</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.54149054438533395</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.20838842964203899</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.65030191405191595</v>
+      </c>
+      <c r="J55" s="3">
+        <v>7.9086023375907893E-2</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2.01845823436578</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3">
+        <v>7.7259698172613703E-2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.8546985940321099</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.77443515960310705</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.115986741771179</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.31218732573187602</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.36127957558125501</v>
+      </c>
+      <c r="K56" s="3">
+        <v>3.4958470948921399</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.1736632201003299</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5.13702404979847E-2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.74486828790473802</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.396076201997411</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9.3783676376055405E-2</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.60260053240775602</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.15816166388342201</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2.0468606030673699</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4.3831437644231502E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.17934754267813699</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.41213201411843498</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.10783691406007601</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.367011792821965</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.51983719794160699</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1.62999689926445</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9.0690241614597003E-2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3.0456129586372702</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.97343920429233899</v>
+      </c>
+      <c r="H60" s="3">
+        <v>7.2978637588124104E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.55572367703766701</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.25613027059702198</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4.9945749897670204</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2.0332075780457901E-2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9.15903554762868E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.215224653721832</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2.15933510123562E-2</v>
+      </c>
+      <c r="I61" s="3">
+        <v>9.2804484870129794E-2</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4.1041700369262801E-2</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.48258662123032497</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1.6317968700204799</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.13220800043502001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.8258965902156401</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.64250874478418396</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1.9480447958106301E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.35268582415529498</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.122216101160651</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3.0949957087089</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.17220327602744701</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2.8289181762280098</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.77447130396348796</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7.8480085588166701E-2</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.62299304838827696</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.25422828785698598</v>
+      </c>
+      <c r="K64" s="3">
+        <v>4.7312941780523703</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3.9777277364344603E-2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.71460850291199096</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.22142689937860799</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1.4929202102993901E-2</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.11264204189733</v>
+      </c>
+      <c r="J65" s="3">
+        <v>9.2421169399207904E-3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1.11262604059519</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5.3559807401812203E-2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.89097823857647496</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.474105122852434</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.226710769036991</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.16753660228145101</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4.2796186357334398E-2</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1.8556867265065</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4.9532921349481403E-2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2.8218952888039301</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.52564050966658904</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.12649062169122199</v>
+      </c>
+      <c r="J67" s="3">
+        <v>2.7654193017501799E-2</v>
+      </c>
+      <c r="K67" s="3">
+        <v>6.8731447389338798E-2</v>
+      </c>
+      <c r="L67" s="3">
+        <v>3.61994498191806</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1.9415215134081499E-2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.4051616961970399</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.48406882359437098</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.19886437086023E-2</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3.3769902372149697E-2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>7.8342696470854206E-2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2.0327469774771001</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.21309934619426099</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3.05811557961714</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.89542242081238199</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6.4172561798956404E-2</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.63215876779809999</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.35507680361086003</v>
+      </c>
+      <c r="K69" s="3">
+        <v>5.2180454798316998</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3.6577685796471297E-2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2.8894683541536499</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.92053417856803499</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.15975526832473699</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.25118458759970802</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.31989446484004602</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4.57741453928264</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7.8568456334494899E-2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2.4760039393743898</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.72382255303704102</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.223020657547159</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0.55783451327104605</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0.33744439130534798</v>
+      </c>
+      <c r="K71" s="3">
+        <v>4.3966945108694802</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6.2906237325681402E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.30788696465432902</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.32442710368230199</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.16369838233419801</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0.18494741786652599</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5.0508200762363002E-2</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1.0943743066253999</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5.1068680305862799E-2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3.9703556095896002</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.62028774563440803</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2.2618560021634801E-2</v>
+      </c>
+      <c r="I73" s="3">
+        <v>6.7128250067241199E-2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.26990578387942898</v>
+      </c>
+      <c r="K73" s="3">
+        <v>5.0013646294981804</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5.6811602395596503E-2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2.9720539220781799</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.41522997652358201</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.22926143530174001</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.23543863865022199</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.12723795501176</v>
+      </c>
+      <c r="K74" s="3">
+        <v>4.0360335299610801</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="3">
+        <v>6.5984606150466502E-2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.725078237145386</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.322113180507414</v>
+      </c>
+      <c r="H75" s="3">
+        <v>2.49969631757825E-2</v>
+      </c>
+      <c r="I75" s="3">
+        <v>9.5504835672936605E-2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>7.9872705610836203E-2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1.3135505282628199</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9.0961796656790606E-2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.99735729179177601</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.46025723311470101</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3.56089980585314E-3</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3.1542482387740899E-2</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.22281931193870699</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1.80649901569557</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.8567079552944403E-2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.26348653083194301</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.19240296492462</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1.9629956982667202E-2</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.20171063241960199</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.18835860402688601</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.90415576873866299</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1.6441374043700401</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>4.3850999967353303E-2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.82740475618676801</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.176588380640678</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1.3230769901873799E-2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.13835223464686999</v>
+      </c>
+      <c r="K79" s="3">
+        <v>8.3691020956192796E-3</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1.20779624343916</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5.3568598784139103E-2</v>
+      </c>
+      <c r="G80" s="3">
+        <v>3.8820900476304101</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.65842671486105897</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.436823396584757</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.20099520360389</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.23347173741001301</v>
+      </c>
+      <c r="L80" s="3">
+        <v>5.4653756988742703</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.20706708785132399</v>
+      </c>
+      <c r="F81" s="3">
+        <v>6.94372666156936</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.57710659903238304</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.74715571836731998</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.120750188661882</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.235939026430004</v>
+      </c>
+      <c r="K81" s="3">
+        <v>8.8317452819122693</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.22867562858215501</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2.2264462552173301</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1.25732637870688</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.215702036137989</v>
+      </c>
+      <c r="I82" s="3">
+        <v>3.9562723753069999</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.159150901169827</v>
+      </c>
+      <c r="K82" s="3">
+        <v>8.0435735751211901</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1.1224307168051399</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3.7735298799489198E-2</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1.1494248686039299</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.54297863093210297</v>
+      </c>
+      <c r="H84" s="3">
+        <v>4.7388661538056799E-2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.15315767330838601</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.23149826534349499</v>
+      </c>
+      <c r="K84" s="3">
+        <v>2.1621833985254599</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1.1950866041034101</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3.9647669106338802E-2</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6.4906323809059405E-2</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.19932484993261401</v>
+      </c>
+      <c r="H86" s="3">
+        <v>6.8258812449781298E-2</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0.78774221295859703</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.3851187697820903E-2</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1.19373105595421</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1.5620945583949801E-2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3.5165964300410701</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.59613951375434004</v>
+      </c>
+      <c r="H87" s="3">
+        <v>8.0197578170229197E-2</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.122232421326464</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0.26677620860651702</v>
+      </c>
+      <c r="K87" s="3">
+        <v>4.5975630974825696</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.25089486978848002</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2.2090100063762899</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1.83085713199357</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.261687653951024</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1.6217147799182901</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.41920727030469701</v>
+      </c>
+      <c r="K88" s="3">
+        <v>6.5933717123323499</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6.3216967244008895E-2</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.10005581974691601</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.19280876483464399</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2.1828821179438702E-2</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0.202096473958294</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.229299335553352</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0.80930618251665498</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6.1034363574342998E-2</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8.4333611529384497E-2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.33456525888032401</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1.2378180508809599E-2</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0.15991503291255599</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6.85363914363806E-2</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.72076283884179704</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3">
+        <v>6.5125726426873004E-2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2.4606164280746601</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.78941505189699002</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.51103832409315697</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.33401601782891199</v>
+      </c>
+      <c r="J91" s="3">
+        <v>7.1791754230819904E-2</v>
+      </c>
+      <c r="K91" s="3">
+        <v>4.2320033025514103</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6.1000496464829197E-2</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.200110133022458</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.40281405751299998</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3.1215752312978198E-2</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.120459952483938</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.37505020112500598</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1.19065059292221</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1.3824126733112899E-2</v>
+      </c>
+      <c r="F93" s="3">
+        <v>3.34512685750608</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.51853805577098699</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.65913822235539699</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.17568352684295699</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.410932338331159</v>
+      </c>
+      <c r="K93" s="3">
+        <v>5.1232431275396904</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5.4166416495955702E-2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.57014022941454001</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.34281739277248402</v>
+      </c>
+      <c r="H94" s="3">
+        <v>6.3975478105821798E-2</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0.19637919806419099</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1.1738747415592501</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2.4013534564122399</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3.17150612371577</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4.9441731285772901E-2</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1.3939235056232999</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.53480680416844595</v>
+      </c>
+      <c r="H96" s="3">
+        <v>9.1019772190095896E-2</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0.27121141384817399</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0.20604248763310601</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2.5464457147488999</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2.0840014400221599E-2</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2.9248350769283702</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.37763879047205101</v>
+      </c>
+      <c r="H97" s="3">
+        <v>6.0951275099150604E-3</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0.16276359807938801</v>
+      </c>
+      <c r="J97" s="3">
+        <v>5.0243213574030801</v>
+      </c>
+      <c r="K97" s="3">
+        <v>8.5164939647930193</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.6834079996819998E-2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.82580134124596005</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.53310426805764799</v>
+      </c>
+      <c r="H98" s="3">
+        <v>9.7795333566683601E-2</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.15703284379413801</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0.15671679307244599</v>
+      </c>
+      <c r="K98" s="3">
+        <v>1.7972846597337</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="3">
+        <v>5.8133810766227E-2</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.15855718008922801</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.18954329589186</v>
+      </c>
+      <c r="H99" s="3">
+        <v>4.3439359233189298E-2</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.22126174104990501</v>
+      </c>
+      <c r="J99" s="3">
+        <v>4.1889588604651203E-2</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0.71282497563505998</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1.9329188317000201E-2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1.17604764305881</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.35877916063698401</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0.35835170299355401</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0.32392292370682402</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0.73162328927308695</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2.9680539079862598</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4.6851785167079898E-2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.26938616302824098</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.25700817490737199</v>
+      </c>
+      <c r="H101" s="3">
+        <v>3.3637632088345799E-3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.17848198683465799</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5.2473730694055601E-2</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0.80756560384024101</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.114442039646553</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1.3905774734426299</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.82038282958041198</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3.6840580747611297E-2</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.212324362172128</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0.414162127340575</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2.98872941292991</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3">
+        <v>3.6361752920410398E-2</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1.9100985297720501</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.65994279521821197</v>
+      </c>
+      <c r="H103" s="3">
+        <v>2.5882276972538299E-2</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.29717233365742002</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0.22065281288767299</v>
+      </c>
+      <c r="K103" s="3">
+        <v>3.1501105014283102</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K104" s="3">
+        <v>5.4299658171533203</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="3">
+        <v>5.3088379988533399E-2</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.57605981978151599</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.53526947167918204</v>
+      </c>
+      <c r="H105" s="3">
+        <v>3.0588884117938E-2</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.36141110941211602</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0.18609789034179899</v>
+      </c>
+      <c r="K105" s="3">
+        <v>1.74251555532108</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="3">
+        <v>3.8717630845276803E-2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>7.7807921137063696E-2</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.630374058197957</v>
+      </c>
+      <c r="H106" s="3">
+        <v>4.7310241804277503E-3</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0.191859689822895</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0.32748649532538099</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1.2709768195090001</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3">
+        <v>3.49930710758267E-2</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.20889078842658301</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.267365350923505</v>
+      </c>
+      <c r="H107" s="3">
+        <v>2.8043484578586401E-2</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.15162670164731501</v>
+      </c>
+      <c r="J107" s="3">
+        <v>8.60651719011091E-2</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0.77698456855292697</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.199245843730193</v>
+      </c>
+      <c r="F108" s="3">
+        <v>2.24243699555758</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.76324737806491205</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0.37336133740048399</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.840969606194235</v>
+      </c>
+      <c r="J108" s="3">
+        <v>0.13136214578347299</v>
+      </c>
+      <c r="K108" s="3">
+        <v>4.5506233067308699</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="3">
+        <v>3.3353500155988001E-2</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.36520113086832501</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.24765218494694899</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1.5937974589962298E-2</v>
+      </c>
+      <c r="I109" s="3">
+        <v>6.5773207134656703E-2</v>
+      </c>
+      <c r="J109" s="3">
+        <v>5.5940765508761996E-3</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0.73351207424675702</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3.5842449544564503E-2</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1.6367028758558799</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.47599302762442303</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0.62083081255565398</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.117978380825668</v>
+      </c>
+      <c r="J110" s="3">
+        <v>0.33557093066770299</v>
+      </c>
+      <c r="K110" s="3">
+        <v>3.2229184770738901</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.174439047605287</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2.77190007773638</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1.01066511252568</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3.4225795361331801E-2</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1.0751799588645801</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0.32720636573162398</v>
+      </c>
+      <c r="K111" s="3">
+        <v>5.3936163578248699</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.112058419996065</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.171209894437304</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.231997052722659</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0.322846672843077</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.30346349713077198</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2.7588789636458999E-2</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1.1691643267663301</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="3">
+        <v>5.5832567888676403E-2</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.77520218242245598</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.65747291595285196</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0.30961073807496198</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.163915830066413</v>
+      </c>
+      <c r="J113" s="3">
+        <v>0.44986882466362399</v>
+      </c>
+      <c r="K113" s="3">
+        <v>2.4119030590689801</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3.9773030686205899E-2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.74267590216484902</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.29597905353006199</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0.17654743664932601</v>
+      </c>
+      <c r="I114" s="3">
+        <v>9.5085211554829505E-2</v>
+      </c>
+      <c r="J114" s="3">
+        <v>4.6140285465753599E-2</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1.3962009200510299</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.144888110414505</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2.3848988287477102</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.95767065831518405</v>
+      </c>
+      <c r="H115" s="3">
+        <v>0.100735987359046</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0.94955271617834702</v>
+      </c>
+      <c r="J115" s="3">
+        <v>3.6726237507789201E-2</v>
+      </c>
+      <c r="K115" s="3">
+        <v>4.5744725385225804</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="3">
+        <v>5.2640172987634702E-2</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2.15698237677667</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.77517623316407902</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0.381335204982299</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0.46620587773251798</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.44040801075827601</v>
+      </c>
+      <c r="K116" s="3">
+        <v>4.2727478764014704</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="3">
+        <v>6.7671345990096901E-2</v>
+      </c>
+      <c r="F117" s="3">
+        <v>8.7917966969141406E-2</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.21060387578456599</v>
+      </c>
+      <c r="H117" s="3">
+        <v>6.9057157003982197E-2</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.57836396871516205</v>
+      </c>
+      <c r="J117" s="3">
+        <v>7.6358180728326494E-2</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1.0899724951912799</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0.61298994336535095</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="3">
+        <v>4.0229758111215298E-2</v>
+      </c>
+      <c r="F119" s="3">
+        <v>8.1630396286275497E-2</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.15918946962119099</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1.6371791930724001E-2</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.106131113131737</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0.29874440786837098</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0.70229693694951401</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3.3852958921956999E-2</v>
+      </c>
+      <c r="F120" s="3">
+        <v>13.9211799209055</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.71906648247696603</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.17142245881388399</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0.193279826222644</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0.44475322383711202</v>
+      </c>
+      <c r="K120" s="3">
+        <v>15.483554871178001</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C121" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2.4630247249367E-2</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.39887410402568002</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.23861529319927299</v>
+      </c>
+      <c r="H121" s="3">
+        <v>5.7830784648272597E-3</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.247846824942834</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0.26428318583764798</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1.1800327337196299</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.15180723734648699</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1.6050801609713401</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.62856856052132903</v>
+      </c>
+      <c r="H122" s="3">
+        <v>4.4952946675238602E-2</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0.61632035470216795</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0.12971464872925101</v>
+      </c>
+      <c r="K122" s="3">
+        <v>3.1764439089458101</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2.7229464266310899E-2</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.12948705018817699</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.22927307551029499</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1.8073080224344801E-2</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0.204246676456392</v>
+      </c>
+      <c r="J123" s="3">
+        <v>3.6814279030104403E-2</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0.64512362567562398</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="3">
+        <v>7.3393583972099705E-2</v>
+      </c>
+      <c r="F124" s="3">
+        <v>3.88761938218446</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1.2238838029640999</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0.25568414964476199</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0.708427031600118</v>
+      </c>
+      <c r="J124" s="3">
+        <v>6.08676957625248E-2</v>
+      </c>
+      <c r="K124" s="3">
+        <v>6.2098756461280598</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1.5779823086423601E-3</v>
+      </c>
+      <c r="F125" s="3">
+        <v>2.5229555560739501</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.65594570676197295</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0.17400982896924599</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0.28517554574790899</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0.53002429248458505</v>
+      </c>
+      <c r="K125" s="3">
+        <v>4.1696889123463103</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K126" s="3">
+        <v>2.83784851100229</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1.04350386247718</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="3">
+        <v>3.6273229433388399E-2</v>
+      </c>
+      <c r="F128" s="3">
+        <v>4.8126432219768702</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.80330866206320795</v>
+      </c>
+      <c r="H128" s="3">
+        <v>5.8800508694470399E-2</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.16055660411372399</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0.18463744225602199</v>
+      </c>
+      <c r="K128" s="3">
+        <v>6.0562196685376799</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="3">
+        <v>4.5259297557296602E-2</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.411838908422615</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.46475282140205798</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0.20121765767344299</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.170958728551239</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0.174463010955588</v>
+      </c>
+      <c r="K129" s="3">
+        <v>1.4684904245622401</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="3">
+        <v>4.4702534264948898E-2</v>
+      </c>
+      <c r="F130" s="3">
+        <v>8.3097095072718605E-2</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.34570161100979302</v>
+      </c>
+      <c r="H130" s="3">
+        <v>9.4620650624753194E-2</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0.28065434818527601</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0.104684420331706</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0.95346065948919601</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K131" s="3">
+        <v>5.2477198884171496</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.14341593054256599</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2.4847355799811202</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.61924273281522002</v>
+      </c>
+      <c r="H132" s="3">
+        <v>4.0089106702472302E-2</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.755860124541338</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0.219641974662803</v>
+      </c>
+      <c r="K132" s="3">
+        <v>4.2629854492455204</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K133" s="3">
+        <v>10.0697105067644</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2.7880792082422001E-2</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1.29998003890585E-2</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.15446675668981699</v>
+      </c>
+      <c r="H134" s="3">
+        <v>4.5421047018549404E-3</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.37106210653371602</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0.30396065678992401</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0.87491221718679202</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="3">
+        <v>3.3295729113006899E-2</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2.1337426770638901</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.42565907805984499</v>
+      </c>
+      <c r="H135" s="3">
+        <v>5.9239831636707901E-2</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0.23924747825471601</v>
+      </c>
+      <c r="J135" s="3">
+        <v>3.5239276313854498E-2</v>
+      </c>
+      <c r="K135" s="3">
+        <v>2.9264240704420201</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="3">
+        <v>5.0486638118416E-2</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1.8210020065969399</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.71016105689286602</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0.45125608965516001</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0.29255109462814899</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.157973657683526</v>
+      </c>
+      <c r="K136" s="3">
+        <v>3.4834305435750599</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="3">
+        <v>8.0350747994660202E-2</v>
+      </c>
+      <c r="F137" s="3">
+        <v>2.6517069938648299</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.358121555878403</v>
+      </c>
+      <c r="H137" s="3">
+        <v>7.8482803557563097E-2</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0.30091196320872399</v>
+      </c>
+      <c r="J137" s="3">
+        <v>4.09452950652094E-2</v>
+      </c>
+      <c r="K137" s="3">
+        <v>3.5105193595693902</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="3">
+        <v>7.4137621642745399E-2</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0.42023936944810403</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.35650263645698199</v>
+      </c>
+      <c r="H138" s="3">
+        <v>2.6186242631779399E-3</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0.15386182776697799</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0.108233090102101</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1.11559316968009</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="3">
+        <v>6.5565290356040307E-2</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.72904173291648999</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.428276731113858</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1.31223809811205E-2</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0.72378816210462904</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2.04805829274017</v>
+      </c>
+      <c r="K139" s="3">
+        <v>4.0078525902123001</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C140" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.255013381321332</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2.5333724310096</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.97916477563516202</v>
+      </c>
+      <c r="H140" s="3">
+        <v>9.0897600956146699E-2</v>
+      </c>
+      <c r="I140" s="3">
+        <v>1.6015290823962101</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0.31482529705891399</v>
+      </c>
+      <c r="K140" s="3">
+        <v>5.7748025683773703</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.109372060732409</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2.88851868975736</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0.56250020948024104</v>
+      </c>
+      <c r="H141" s="3">
+        <v>5.2792878148726803E-2</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.35166549706882899</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0.18236896598128599</v>
+      </c>
+      <c r="K141" s="3">
+        <v>4.1472183011688504</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="3">
+        <v>8.4918417273672206E-2</v>
+      </c>
+      <c r="F142" s="3">
+        <v>4.5250233165206701</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.57817971962646797</v>
+      </c>
+      <c r="H142" s="3">
+        <v>4.6435236730249501E-3</v>
+      </c>
+      <c r="I142" s="3">
+        <v>2.4422909770919599E-2</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0.51025457230376103</v>
+      </c>
+      <c r="K142" s="3">
+        <v>5.72744245916852</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="3">
+        <v>5.8573518211616098E-2</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0.208702187859682</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0.23076171443570301</v>
+      </c>
+      <c r="I143" s="3">
+        <v>7.9997717426732007E-2</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0.175689443459595</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0.237055967068138</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0.99078054846146602</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="3">
+        <v>6.2679073710342204E-2</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1.5968432916930699</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0.399692579346622</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0.20808344770933901</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0.17401391818216899</v>
+      </c>
+      <c r="J144" s="3">
+        <v>1.47433875108733E-2</v>
+      </c>
+      <c r="K144" s="3">
+        <v>2.4560556981524102</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="3">
+        <v>3.0578177799234298E-2</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.32838357963079401</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.29804940710410499</v>
+      </c>
+      <c r="H145" s="3">
+        <v>7.3418064443633205E-2</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.20389319537984801</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0.102495874088852</v>
+      </c>
+      <c r="K145" s="3">
+        <v>1.03681829844647</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K146" s="3">
+        <v>3.6444486548683299</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="3">
+        <v>9.5025076256926395E-4</v>
+      </c>
+      <c r="F147" s="3">
+        <v>4.2582217195446797</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0.37380523553262601</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0.11095664017474401</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0.241052966548223</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0.159078523447723</v>
+      </c>
+      <c r="K147" s="3">
+        <v>5.1440653360105602</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.22212189217155401</v>
+      </c>
+      <c r="F148" s="3">
+        <v>4.9048369577697501</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0.38607211303063599</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0.60587710478286205</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0.109645036734804</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0.17272405491273901</v>
+      </c>
+      <c r="K148" s="3">
+        <v>6.4012771594023397</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C149" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2.62331717099719E-2</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0.96955554460767301</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0.37125149173806099</v>
+      </c>
+      <c r="H149" s="3">
+        <v>8.3694858162323305E-2</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0.231753762027506</v>
+      </c>
+      <c r="J149" s="3">
+        <v>6.7735726750970698E-2</v>
+      </c>
+      <c r="K149" s="3">
+        <v>1.7502245549965101</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="3">
+        <v>4.4900104019197397E-2</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1.9968471809634301</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0.89258567857804705</v>
+      </c>
+      <c r="H150" s="3">
+        <v>4.8578533583177999E-2</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0.36859651318410203</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0.103573602032779</v>
+      </c>
+      <c r="K150" s="3">
+        <v>3.45508161236073</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K151" s="3">
+        <v>8.0817174647016703</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="3">
+        <v>4.7242765079885903E-2</v>
+      </c>
+      <c r="F152" s="3">
+        <v>9.6156230373195303E-2</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0.27574918457004699</v>
+      </c>
+      <c r="H152" s="3">
+        <v>5.5664562334749E-2</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0.43041158491086101</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0.12218268473239099</v>
+      </c>
+      <c r="K152" s="3">
+        <v>1.02740701200113</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.16319658648635799</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2.2444579247996899</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0.71163273930164905</v>
+      </c>
+      <c r="H153" s="3">
+        <v>7.7760215560665202E-2</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0.37649492676452201</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0.235960113486443</v>
+      </c>
+      <c r="K153" s="3">
+        <v>3.80950250639932</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="3">
+        <v>6.2479812643947599E-2</v>
+      </c>
+      <c r="F154" s="3">
+        <v>4.7662737400241504</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1.3265948251225499</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0.120605014271835</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0.91952377371810801</v>
+      </c>
+      <c r="J154" s="3">
+        <v>0.28166683314221402</v>
+      </c>
+      <c r="K154" s="3">
+        <v>7.4771439989228003</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="3">
+        <v>5.0686902119930197E-2</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0.22413144087307099</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0.31745841370628403</v>
+      </c>
+      <c r="H155" s="3">
+        <v>4.47336918212944E-2</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.277890502665878</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0.131553385506366</v>
+      </c>
+      <c r="K155" s="3">
+        <v>1.0464543366928201</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="3">
+        <v>7.8805869937810899E-2</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1.3110579608491799</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0.51689076571112702</v>
+      </c>
+      <c r="H156" s="3">
+        <v>7.7592730269626401E-3</v>
+      </c>
+      <c r="I156" s="3">
+        <v>9.4032648770760799E-2</v>
+      </c>
+      <c r="J156" s="3">
+        <v>0.181822740923682</v>
+      </c>
+      <c r="K156" s="3">
+        <v>2.1903692592195201</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="3">
+        <v>2.8577098630502101E-2</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0.79355231110763302</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0.317995499423053</v>
+      </c>
+      <c r="I157" s="3">
+        <v>7.2129354515264504E-2</v>
+      </c>
+      <c r="J157" s="3">
+        <v>9.2776227165385194E-2</v>
+      </c>
+      <c r="K157" s="3">
+        <v>0.58606539933053203</v>
+      </c>
+      <c r="L157" s="3">
+        <v>1.89109589017237</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="3">
+        <v>7.5010164342092595E-2</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1.47342082989422</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0.59231090036593603</v>
+      </c>
+      <c r="H158" s="3">
+        <v>9.9227236148651296E-2</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0.43578132560086003</v>
+      </c>
+      <c r="J158" s="3">
+        <v>2.7313141245893999E-2</v>
+      </c>
+      <c r="K158" s="3">
+        <v>2.70306359759766</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="3">
+        <v>5.8823553300681897E-2</v>
+      </c>
+      <c r="F159" s="3">
+        <v>7.8301182935393301E-2</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0.28995924367915699</v>
+      </c>
+      <c r="H159" s="3">
+        <v>3.91125751678029E-3</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0.36675343919464498</v>
+      </c>
+      <c r="J159" s="3">
+        <v>8.3660974958513906E-2</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0.88140965158517204</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K160" s="3">
+        <v>1.8755322683128299</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="3">
+        <v>3.2303196373176801E-2</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.14706119791191</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0.21679251994693699</v>
+      </c>
+      <c r="H161" s="3">
+        <v>4.9253838813549E-2</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1.95593215563543E-2</v>
+      </c>
+      <c r="J161" s="3">
+        <v>8.8443698257799505E-2</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0.55341377285972704</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="3">
+        <v>5.9653243031166599E-2</v>
+      </c>
+      <c r="G162" s="3">
+        <v>5.0393524561450603E-2</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0.190924039996346</v>
+      </c>
+      <c r="I162" s="3">
+        <v>1.24533018783808E-2</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0.36010233257463897</v>
+      </c>
+      <c r="K162" s="3">
+        <v>1.01320060428593E-2</v>
+      </c>
+      <c r="L162" s="3">
+        <v>0.683658448084842</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="3">
+        <v>5.2739841954970397E-2</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.30471079573096999</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0.16936749788674499</v>
+      </c>
+      <c r="H163" s="3">
+        <v>2.9936946127637601E-2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0.52098912560968702</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0.131956172251805</v>
+      </c>
+      <c r="K163" s="3">
+        <v>1.20970037956181</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.22326569469233401</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2.7692349503133</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1.2182319468188101</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0.14912600796182099</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0.62321231080459305</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0.40201152068407298</v>
+      </c>
+      <c r="K164" s="3">
+        <v>5.3850824312749399</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.12794612681341899</v>
+      </c>
+      <c r="F165" s="3">
+        <v>8.6381670738134808</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0.94993341138724097</v>
+      </c>
+      <c r="H165" s="3">
+        <v>9.93510360186E-2</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0.95552976988496696</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0.57439276546538598</v>
+      </c>
+      <c r="K165" s="3">
+        <v>11.3453201833831</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.107034482282924</v>
+      </c>
+      <c r="F166" s="3">
+        <v>2.2419243474429802</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0.83494766910084395</v>
+      </c>
+      <c r="H166" s="3">
+        <v>3.37124483043637E-2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0.67547548903672905</v>
+      </c>
+      <c r="J166" s="3">
+        <v>7.9884793611532806E-2</v>
+      </c>
+      <c r="K166" s="3">
+        <v>3.97297922977938</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="3">
+        <v>8.3340321099890494E-2</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2.7551553680056502</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0.53201115348993699</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0.102307178320502</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1.0258161172121201</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0.42608182566070302</v>
+      </c>
+      <c r="K167" s="3">
+        <v>4.9247119637888002</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K168" s="3">
+        <v>1.5967908126906101</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="3">
+        <v>7.4652371913532703E-2</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2.7840668214352</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0.41117250997927501</v>
+      </c>
+      <c r="H169" s="3">
+        <v>6.8837502528263705E-2</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0.21145292920592201</v>
+      </c>
+      <c r="J169" s="3">
+        <v>0.124788783712474</v>
+      </c>
+      <c r="K169" s="3">
+        <v>3.6749709187746702</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="3">
+        <v>4.2597950220612697E-2</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.72256080861939898</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0.41255398590214798</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0.14094058063377299</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0.14294099225565299</v>
+      </c>
+      <c r="J170" s="3">
+        <v>9.6480090433498103E-2</v>
+      </c>
+      <c r="K170" s="3">
+        <v>1.5580744080650799</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C171" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="3">
+        <v>4.9732834565349403E-2</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1.27094452691264</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0.50982593047495595</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0.106849939361119</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0.32400025313400499</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0.20260224486915801</v>
+      </c>
+      <c r="K171" s="3">
+        <v>2.4639557293172301</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="3">
+        <v>9.0961794838531396E-2</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.99735727185534095</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0.46025722391449903</v>
+      </c>
+      <c r="H172" s="3">
+        <v>3.56089973467338E-3</v>
+      </c>
+      <c r="I172" s="3">
+        <v>3.1542481757229998E-2</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0.22281930748471401</v>
+      </c>
+      <c r="K172" s="3">
+        <v>1.80649897958499</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="3">
+        <v>5.2272784132609502E-2</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.13856059400782</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0.23925225301109401</v>
+      </c>
+      <c r="H173" s="3">
+        <v>2.9030236654621799E-2</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0.28882793598341899</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0.13993124953209801</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0.88787505332166405</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C174" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="3">
+        <v>7.20792476486211E-2</v>
+      </c>
+      <c r="F174" s="3">
+        <v>2.80152556595506</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0.41539608492800001</v>
+      </c>
+      <c r="H174" s="3">
+        <v>9.1128072808507599E-2</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0.21164052427292901</v>
+      </c>
+      <c r="J174" s="3">
+        <v>0.136817772823912</v>
+      </c>
+      <c r="K174" s="3">
+        <v>3.72858726843703</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C175" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="3">
+        <v>9.9947486430778706E-2</v>
+      </c>
+      <c r="F175" s="3">
+        <v>3.1959828814883999</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1.0747112627906199</v>
+      </c>
+      <c r="H175" s="3">
+        <v>0.17978668227849501</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.77087953678280496</v>
+      </c>
+      <c r="J175" s="3">
+        <v>8.4827299087649494E-2</v>
+      </c>
+      <c r="K175" s="3">
+        <v>5.4061351488587599</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="3">
+        <v>5.5295689365464203E-2</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0.94210371187282405</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0.47982952884562702</v>
+      </c>
+      <c r="H176" s="3">
+        <v>0.43443415223445703</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0.69762133710348395</v>
+      </c>
+      <c r="J176" s="3">
+        <v>0.19968708822214601</v>
+      </c>
+      <c r="K176" s="3">
+        <v>2.8089715076439998</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C177" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="3">
+        <v>5.9800704701059401E-2</v>
+      </c>
+      <c r="F177" s="3">
+        <v>8.4342069028609801E-2</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0.254427725561926</v>
+      </c>
+      <c r="H177" s="3">
+        <v>2.58745107041722E-2</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.304751351734595</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0.11719500460144799</v>
+      </c>
+      <c r="K177" s="3">
+        <v>0.846391366331813</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="3">
+        <v>5.9640156888413003E-2</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1.04919771518484</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0.38384378042070599</v>
+      </c>
+      <c r="H178" s="3">
+        <v>3.5910703725351198E-2</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.124562679781254</v>
+      </c>
+      <c r="J178" s="3">
+        <v>8.2269637980538102E-2</v>
+      </c>
+      <c r="K178" s="3">
+        <v>1.7354246739810999</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C179" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.18902714433024401</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2.3334425074976299</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0.844680816658397</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0.132084870652909</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0.74237152783161997</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0.25052948569878097</v>
+      </c>
+      <c r="K179" s="3">
+        <v>4.4921363526695801</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" s="3">
+        <v>8.0876816798607795E-2</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.88296509129086898</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0.49856659942182602</v>
+      </c>
+      <c r="H180" s="3">
+        <v>8.5223834566406295E-2</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0.351421857394763</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0.60100858728340201</v>
+      </c>
+      <c r="K180" s="3">
+        <v>2.50006278675587</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="3">
+        <v>5.65540522788485E-2</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.98358000526647904</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0.44087359924703701</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0.1788265789988</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0.211307336068389</v>
+      </c>
+      <c r="J181" s="3">
+        <v>3.4930428134277103E-2</v>
+      </c>
+      <c r="K181" s="3">
+        <v>1.90607199999383</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C182" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="3">
+        <v>3.3295728686717103E-2</v>
+      </c>
+      <c r="F182" s="3">
+        <v>2.1337426497452801</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0.42565907261007302</v>
+      </c>
+      <c r="H182" s="3">
+        <v>5.92398308782522E-2</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.239247475191597</v>
+      </c>
+      <c r="J182" s="3">
+        <v>3.5239275862681198E-2</v>
+      </c>
+      <c r="K182" s="3">
+        <v>2.9264240329745999</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C183" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="3">
+        <v>3.9118203531401601E-2</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.60947128640738601</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0.231012126929345</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1.8412511709019301E-2</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0.10439654502807801</v>
+      </c>
+      <c r="J183" s="3">
+        <v>1.2818389614570099E-2</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1.01522906321979</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C184" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="3">
+        <v>6.9694796801417797E-2</v>
+      </c>
+      <c r="F184" s="3">
+        <v>2.1457757785935199</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0.74567866080381195</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0.28141238030726801</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0.45013919647971701</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0.27027091137143999</v>
+      </c>
+      <c r="K184" s="3">
+        <v>3.9629717243571698</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C185" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4.4485507652522203E-2</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.230294390287408</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0.338970103884639</v>
+      </c>
+      <c r="H185" s="3">
+        <v>6.1017158606677703E-2</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.224450772219457</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0.13188800563765199</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1.0311059382883501</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C186" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="3">
+        <v>5.7576371751511403E-2</v>
+      </c>
+      <c r="F186" s="3">
+        <v>2.7326250740770499</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0.84727306944182801</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0.111575622623374</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0.32803210408470801</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0.145423630944326</v>
+      </c>
+      <c r="K186" s="3">
+        <v>4.2225058729227998</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C187" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.18716625525435099</v>
+      </c>
+      <c r="F187" s="3">
+        <v>2.47048961318872</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0.90718026029274901</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0.11983161365247499</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.50289648450960001</v>
+      </c>
+      <c r="J187" s="3">
+        <v>0.25321127161444301</v>
+      </c>
+      <c r="K187" s="3">
+        <v>4.4407754985123402</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C188" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" s="3">
+        <v>5.0721068072618197E-2</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.37781654954785998</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0.30198210231137401</v>
+      </c>
+      <c r="H188" s="3">
+        <v>4.1510071597963799E-2</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.24560922801311999</v>
+      </c>
+      <c r="J188" s="3">
+        <v>0.121789550345868</v>
+      </c>
+      <c r="K188" s="3">
+        <v>1.1394285698888</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="3">
+        <v>5.4718024668787897E-2</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1.5525135489590201</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0.347399230695356</v>
+      </c>
+      <c r="H189" s="3">
+        <v>7.1437981558489502E-2</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0.16614865543478</v>
+      </c>
+      <c r="J189" s="3">
+        <v>6.6914734227544903E-2</v>
+      </c>
+      <c r="K189" s="3">
+        <v>2.2591321755439799</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.13123178802996099</v>
+      </c>
+      <c r="F190" s="3">
+        <v>2.6371566721272899</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0.92260082760375495</v>
+      </c>
+      <c r="H190" s="3">
+        <v>0.17766776384421101</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0.62002300406101396</v>
+      </c>
+      <c r="J190" s="3">
+        <v>0.19704626062428701</v>
+      </c>
+      <c r="K190" s="3">
+        <v>4.6857263162905198</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C191" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="3">
+        <v>7.0593422087963195E-2</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0.98589292146656704</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0.498339143423224</v>
+      </c>
+      <c r="H191" s="3">
+        <v>9.3515715082915896E-2</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.335462047295567</v>
+      </c>
+      <c r="J191" s="3">
+        <v>0.46887254532589601</v>
+      </c>
+      <c r="K191" s="3">
+        <v>2.45267579468213</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C192" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="3">
+        <v>6.4307717161433006E-2</v>
+      </c>
+      <c r="F192" s="3">
+        <v>4.75721108051978</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1.34769561926033</v>
+      </c>
+      <c r="H192" s="3">
+        <v>0.11890045784764799</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0.97575459129027298</v>
+      </c>
+      <c r="J192" s="3">
+        <v>0.27777040169232298</v>
+      </c>
+      <c r="K192" s="3">
+        <v>7.5416398677718002</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="3">
+        <v>5.5295689365464203E-2</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.94210371187282405</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0.47982952884562702</v>
+      </c>
+      <c r="H193" s="3">
+        <v>0.43443415223445703</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0.69762133710348395</v>
+      </c>
+      <c r="J193" s="3">
+        <v>0.19968708822214601</v>
+      </c>
+      <c r="K193" s="3">
+        <v>2.8089715076439998</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C194" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="3">
+        <v>6.3916980192258693E-2</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1.6468118369264799</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0.44704944373732802</v>
+      </c>
+      <c r="H194" s="3">
+        <v>8.3441922576775004E-2</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0.271111984863949</v>
+      </c>
+      <c r="J194" s="3">
+        <v>0.12582474851367401</v>
+      </c>
+      <c r="K194" s="3">
+        <v>2.6381581545899602</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E12F02-0AB0-5F42-A98F-C435AA912128}">
   <dimension ref="A1:N212"/>
   <sheetViews>
@@ -11184,7 +19106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC512F57-7D33-7E4F-944F-65C175D08EB8}">
   <dimension ref="A1:N215"/>
   <sheetViews>
@@ -19980,7 +27902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N220"/>
   <sheetViews>
